--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -70,8 +70,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -79,9 +114,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,13 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -109,7 +176,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,90 +200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +425,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -441,9 +465,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,75 +530,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1123,17 +1123,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
+      <formula1>"顺序执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C4:C9 C10:C1048576">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
       <formula1>"文件名"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
-      <formula1>"顺序执行"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C4:C9 C10:C1048576">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>顺序执行</t>
   </si>
@@ -34,7 +34,7 @@
     <t>loginPageConfig.xlsx</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>N</t>
   </si>
   <si>
     <t>黄超</t>
@@ -42,16 +42,22 @@
   <si>
     <t>publicIndexPageConfig.xlsx</t>
   </si>
+  <si>
+    <t>baseIndexPageConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,6 +77,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -86,6 +99,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,36 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,16 +149,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,16 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,9 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,25 +221,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,19 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,133 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,11 +445,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,35 +492,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,23 +511,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,23 +1064,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.8916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.1666666666667" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" spans="1:5">
+    <row r="1" ht="19.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1118,6 +1124,21 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1126,7 +1147,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
       <formula1>"顺序执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C4:C9 C10:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3 C5:C9 C10:C1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>顺序执行</t>
   </si>
@@ -46,7 +46,25 @@
     <t>baseIndexPageConfig.xlsx</t>
   </si>
   <si>
+    <t>boeApplyPageConfig.xlsx</t>
+  </si>
+  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>费用报销-事项申请</t>
+  </si>
+  <si>
+    <t>boeReimbursementPageConfig.xlsx</t>
+  </si>
+  <si>
+    <t>费用报销-费用报销</t>
+  </si>
+  <si>
+    <t>boeBorrowPageConfig.xlsx</t>
+  </si>
+  <si>
+    <t>费用报销-借款还款</t>
   </si>
 </sst>
 </file>
@@ -55,9 +73,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,12 +95,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -93,49 +148,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +161,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -157,9 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +211,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,37 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,25 +239,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,157 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +448,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -445,32 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,8 +525,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,45 +554,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +572,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,13 +1082,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.225" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.8916666666667" style="1" customWidth="1"/>
@@ -1135,10 +1153,61 @@
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1146,9 +1215,6 @@
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
       <formula1>"顺序执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3 C5:C9 C10:C1048576">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
       <formula1>"文件名"</formula1>
@@ -1156,6 +1222,9 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"是否执行"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C2:C3 C8:C9 C10:C1048576">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -49,13 +49,13 @@
     <t>boeApplyPageConfig.xlsx</t>
   </si>
   <si>
+    <t>费用报销-事项申请</t>
+  </si>
+  <si>
+    <t>boeReimbursementPageConfig.xlsx</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>费用报销-事项申请</t>
-  </si>
-  <si>
-    <t>boeReimbursementPageConfig.xlsx</t>
   </si>
   <si>
     <t>费用报销-费用报销</t>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,43 +95,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,48 +170,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +198,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,13 +239,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +329,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,157 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,8 +525,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,8 +549,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +572,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1168,10 +1168,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>7</v>
@@ -1182,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -1202,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>顺序执行</t>
   </si>
@@ -49,15 +49,15 @@
     <t>boeApplyPageConfig.xlsx</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>费用报销-事项申请</t>
   </si>
   <si>
     <t>boeReimbursementPageConfig.xlsx</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>费用报销-费用报销</t>
   </si>
   <si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>费用报销-借款还款</t>
+  </si>
+  <si>
+    <t>cmsIndexPageConfig.xlsx</t>
+  </si>
+  <si>
+    <t>合同结算</t>
   </si>
 </sst>
 </file>
@@ -72,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -95,6 +101,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,12 +138,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -124,17 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,34 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -198,37 +235,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,49 +245,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,133 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +450,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +504,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,21 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -530,40 +560,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.225" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.8916666666667" style="1" customWidth="1"/>
@@ -1168,10 +1174,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>7</v>
@@ -1182,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -1208,6 +1214,23 @@
         <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1219,11 +1242,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
       <formula1>"文件名"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C2:C3 C8:C9 C10:C1048576">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C2:C3 C8:C9 C10:C1048576">
-      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -49,25 +49,25 @@
     <t>boeApplyPageConfig.xlsx</t>
   </si>
   <si>
+    <t>费用报销-事项申请</t>
+  </si>
+  <si>
+    <t>boeReimbursementPageConfig.xlsx</t>
+  </si>
+  <si>
+    <t>费用报销-费用报销</t>
+  </si>
+  <si>
+    <t>boeBorrowPageConfig.xlsx</t>
+  </si>
+  <si>
+    <t>费用报销-借款还款</t>
+  </si>
+  <si>
+    <t>cmsIndexPageConfig.xlsx</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>费用报销-事项申请</t>
-  </si>
-  <si>
-    <t>boeReimbursementPageConfig.xlsx</t>
-  </si>
-  <si>
-    <t>费用报销-费用报销</t>
-  </si>
-  <si>
-    <t>boeBorrowPageConfig.xlsx</t>
-  </si>
-  <si>
-    <t>费用报销-借款还款</t>
-  </si>
-  <si>
-    <t>cmsIndexPageConfig.xlsx</t>
   </si>
   <si>
     <t>合同结算</t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,6 +101,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -109,6 +124,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,7 +138,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,92 +153,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +175,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -229,10 +191,48 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,25 +245,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,157 +395,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +454,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -465,15 +485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,10 +506,26 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,15 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,169 +560,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1174,10 +1174,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>7</v>
@@ -1188,13 +1188,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>7</v>
@@ -1205,13 +1205,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>7</v>
@@ -1222,10 +1222,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>18</v>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22755" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>顺序执行</t>
   </si>
@@ -67,10 +67,16 @@
     <t>cmsIndexPageConfig.xlsx</t>
   </si>
   <si>
+    <t>合同结算</t>
+  </si>
+  <si>
+    <t>basIndexPageConfig.xlsx</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>合同结算</t>
+    <t>业务报账</t>
   </si>
 </sst>
 </file>
@@ -78,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,27 +107,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,32 +158,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,70 +174,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,52 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +479,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -531,6 +513,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -546,17 +558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,13 +1094,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.225" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.8916666666667" style="1" customWidth="1"/>
@@ -1225,28 +1231,45 @@
         <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
+      <formula1>"文件名"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
       <formula1>"顺序执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
-      <formula1>"文件名"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C2:C3 C8:C9 C10:C1048576">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"是否执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C2:C3 C10:C1048576">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22755" windowHeight="11790"/>
+    <workbookView windowWidth="26445" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>顺序执行</t>
   </si>
@@ -67,13 +67,25 @@
     <t>cmsIndexPageConfig.xlsx</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>合同结算</t>
   </si>
   <si>
+    <t>ledgerIndexPageConfig.xlsx</t>
+  </si>
+  <si>
+    <t>台账平台</t>
+  </si>
+  <si>
+    <t>fscIndexPageConfig.xlsx</t>
+  </si>
+  <si>
+    <t>共享运营</t>
+  </si>
+  <si>
     <t>basIndexPageConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>业务报账</t>
@@ -84,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,6 +118,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -114,7 +156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,6 +165,52 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,7 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,17 +240,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,74 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,31 +263,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,151 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,50 +468,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +511,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -561,8 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1231,10 +1243,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>7</v>
@@ -1245,31 +1257,65 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
-      <formula1>"文件名"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C8 C2:C3 C5:C7 C9:C11 C12:C1048576">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
+      <formula1>"是否执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
       <formula1>"顺序执行"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
-      <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C2:C3 C10:C1048576">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
+      <formula1>"文件名"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -49,6 +49,9 @@
     <t>boeApplyPageConfig.xlsx</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>费用报销-事项申请</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
   </si>
   <si>
     <t>cmsIndexPageConfig.xlsx</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>合同结算</t>
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,45 +118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,53 +127,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +148,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -238,9 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +207,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,49 +263,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,19 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,109 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +475,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
@@ -496,17 +529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,35 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,9 +570,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1192,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>7</v>
@@ -1206,13 +1206,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>7</v>
@@ -1223,13 +1223,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>7</v>
@@ -1240,10 +1240,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>18</v>
@@ -1260,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>20</v>
@@ -1277,7 +1277,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>22</v>
@@ -1294,7 +1294,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>24</v>
@@ -1305,17 +1305,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C8 C2:C3 C5:C7 C9:C11 C12:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
+      <formula1>"顺序执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C2:C3 C12:C1048576">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
+      <formula1>"文件名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
-      <formula1>"顺序执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
-      <formula1>"文件名"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -98,8 +98,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,13 +119,72 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -148,6 +207,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -161,42 +235,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,47 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,67 +263,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,115 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,35 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,9 +513,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,28 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1308,14 +1308,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
       <formula1>"顺序执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C2:C3 C12:C1048576">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
+      <formula1>"是否执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
       <formula1>"文件名"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
-      <formula1>"是否执行"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3 C5:C11 C12:C1048576">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/testPlan.xlsx
+++ b/Config/testPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26445" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,8 +98,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,12 +119,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -132,6 +193,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -142,14 +210,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,36 +218,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,34 +238,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,14 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,13 +263,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,132 +431,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,18 +444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,17 +472,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,31 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +535,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1308,14 +1308,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="顺序执行" prompt="该列仅作为标识，实际运行时会按照第二列“文件名”的顺序从上往下执行。" sqref="A1" showDropDown="1">
       <formula1>"顺序执行"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
-      <formula1>"是否执行"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" promptTitle="文件名" prompt="这里添加案例场景Excel的文件名,文件需要在Config目录下" sqref="B1" showDropDown="1">
       <formula1>"文件名"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C2:C3 C5:C11 C12:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C2:C3 C6:C11 C12:C1048576">
       <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
+      <formula1>"是否执行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
